--- a/Datasets/Surveys/NASA-TLX_VOR.xlsx
+++ b/Datasets/Surveys/NASA-TLX_VOR.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonghwanshin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yonghwanshin/Documents/GitHub/HeadEyeTracking/Datasets/Surveys/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92637832-16B5-D940-BFEC-29856C6374DF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0CD4DF-9478-FF47-8261-9690D7F3E6F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{9A226E9C-C249-1041-BAB8-7D346553A1E1}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{9A226E9C-C249-1041-BAB8-7D346553A1E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>Mental</t>
   </si>
@@ -76,6 +76,18 @@
   </si>
   <si>
     <t>STD</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Walk</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Stand</t>
   </si>
 </sst>
 </file>
@@ -164,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -175,6 +187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F0314E-1C4B-544E-8B8F-866E91247C6F}">
-  <dimension ref="A1:AC20"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2277,6 +2291,145 @@
         <v>0.78163823686749956</v>
       </c>
     </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="C25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="10">
+        <v>9.9375</v>
+      </c>
+      <c r="D26" s="10">
+        <v>12.125</v>
+      </c>
+      <c r="E26" s="10">
+        <v>7.75</v>
+      </c>
+      <c r="F26" s="10">
+        <v>9.125</v>
+      </c>
+      <c r="G26" s="10">
+        <v>11.125</v>
+      </c>
+      <c r="H26" s="11">
+        <v>7</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3.5125000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10">
+        <v>10</v>
+      </c>
+      <c r="D27" s="10">
+        <v>12</v>
+      </c>
+      <c r="E27" s="10">
+        <v>7.4375</v>
+      </c>
+      <c r="F27" s="10">
+        <v>10.4375</v>
+      </c>
+      <c r="G27" s="10">
+        <v>12.1875</v>
+      </c>
+      <c r="H27" s="11">
+        <v>9.6875</v>
+      </c>
+      <c r="I27" s="10">
+        <v>3.9187500000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="10">
+        <v>8.1875</v>
+      </c>
+      <c r="D28" s="10">
+        <v>7.3125</v>
+      </c>
+      <c r="E28" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7.0625</v>
+      </c>
+      <c r="G28" s="10">
+        <v>10.125</v>
+      </c>
+      <c r="H28" s="11">
+        <v>5.75</v>
+      </c>
+      <c r="I28" s="10">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="10">
+        <v>7.4375</v>
+      </c>
+      <c r="D29" s="10">
+        <v>6.375</v>
+      </c>
+      <c r="E29" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="F29" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="G29" s="10">
+        <v>8.9375</v>
+      </c>
+      <c r="H29" s="11">
+        <v>5.1875</v>
+      </c>
+      <c r="I29" s="10">
+        <v>1.78125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
